--- a/seven_station_series_output/data/Station-Anomalies_TMax.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMax.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1367"/>
+  <dimension ref="A1:J1368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43985,15 +43985,47 @@
       <c r="A1367" s="2" t="n">
         <v>44835</v>
       </c>
-      <c r="B1367" t="inlineStr"/>
-      <c r="C1367" t="inlineStr"/>
-      <c r="D1367" t="inlineStr"/>
-      <c r="E1367" t="inlineStr"/>
-      <c r="F1367" t="inlineStr"/>
-      <c r="G1367" t="inlineStr"/>
-      <c r="H1367" t="inlineStr"/>
-      <c r="I1367" t="inlineStr"/>
-      <c r="J1367" t="inlineStr"/>
+      <c r="B1367" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="C1367" t="n">
+        <v>-0.33</v>
+      </c>
+      <c r="D1367" t="n">
+        <v>-0.03</v>
+      </c>
+      <c r="E1367" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F1367" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="G1367" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="H1367" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="I1367" t="n">
+        <v>0.3173333333333321</v>
+      </c>
+      <c r="J1367" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="1368">
+      <c r="A1368" s="2" t="n">
+        <v>44866</v>
+      </c>
+      <c r="B1368" t="inlineStr"/>
+      <c r="C1368" t="inlineStr"/>
+      <c r="D1368" t="inlineStr"/>
+      <c r="E1368" t="inlineStr"/>
+      <c r="F1368" t="inlineStr"/>
+      <c r="G1368" t="inlineStr"/>
+      <c r="H1368" t="inlineStr"/>
+      <c r="I1368" t="inlineStr"/>
+      <c r="J1368" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMax.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMax.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1368"/>
+  <dimension ref="A1:J1369"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44017,15 +44017,47 @@
       <c r="A1368" s="2" t="n">
         <v>44866</v>
       </c>
-      <c r="B1368" t="inlineStr"/>
-      <c r="C1368" t="inlineStr"/>
-      <c r="D1368" t="inlineStr"/>
-      <c r="E1368" t="inlineStr"/>
-      <c r="F1368" t="inlineStr"/>
-      <c r="G1368" t="inlineStr"/>
-      <c r="H1368" t="inlineStr"/>
-      <c r="I1368" t="inlineStr"/>
-      <c r="J1368" t="inlineStr"/>
+      <c r="B1368" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="C1368" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="D1368" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="E1368" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="F1368" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="G1368" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="H1368" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="I1368" t="n">
+        <v>1.707142857142854</v>
+      </c>
+      <c r="J1368" t="n">
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="1369">
+      <c r="A1369" s="2" t="n">
+        <v>44896</v>
+      </c>
+      <c r="B1369" t="inlineStr"/>
+      <c r="C1369" t="inlineStr"/>
+      <c r="D1369" t="inlineStr"/>
+      <c r="E1369" t="inlineStr"/>
+      <c r="F1369" t="inlineStr"/>
+      <c r="G1369" t="inlineStr"/>
+      <c r="H1369" t="inlineStr"/>
+      <c r="I1369" t="inlineStr"/>
+      <c r="J1369" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMax.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMax.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1369"/>
+  <dimension ref="A1:J1370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43963,7 +43963,7 @@
         <v>-0.12</v>
       </c>
       <c r="E1366" t="n">
-        <v>0.19</v>
+        <v>0.29</v>
       </c>
       <c r="F1366" t="n">
         <v>0.86</v>
@@ -43975,10 +43975,10 @@
         <v>0.09</v>
       </c>
       <c r="I1366" t="n">
-        <v>0.3116190476190463</v>
+        <v>0.3259047619047608</v>
       </c>
       <c r="J1366" t="n">
-        <v>0.31</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="1367">
@@ -43995,7 +43995,7 @@
         <v>-0.03</v>
       </c>
       <c r="E1367" t="n">
-        <v>0.21</v>
+        <v>0.11</v>
       </c>
       <c r="F1367" t="n">
         <v>0.86</v>
@@ -44007,10 +44007,10 @@
         <v>-0.05</v>
       </c>
       <c r="I1367" t="n">
-        <v>0.3173333333333321</v>
+        <v>0.3030476190476176</v>
       </c>
       <c r="J1367" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="1368">
@@ -44049,15 +44049,47 @@
       <c r="A1369" s="2" t="n">
         <v>44896</v>
       </c>
-      <c r="B1369" t="inlineStr"/>
-      <c r="C1369" t="inlineStr"/>
-      <c r="D1369" t="inlineStr"/>
-      <c r="E1369" t="inlineStr"/>
-      <c r="F1369" t="inlineStr"/>
-      <c r="G1369" t="inlineStr"/>
-      <c r="H1369" t="inlineStr"/>
-      <c r="I1369" t="inlineStr"/>
-      <c r="J1369" t="inlineStr"/>
+      <c r="B1369" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="C1369" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="D1369" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="E1369" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="F1369" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="G1369" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1369" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="I1369" t="n">
+        <v>1.226619047619045</v>
+      </c>
+      <c r="J1369" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="1370">
+      <c r="A1370" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="B1370" t="inlineStr"/>
+      <c r="C1370" t="inlineStr"/>
+      <c r="D1370" t="inlineStr"/>
+      <c r="E1370" t="inlineStr"/>
+      <c r="F1370" t="inlineStr"/>
+      <c r="G1370" t="inlineStr"/>
+      <c r="H1370" t="inlineStr"/>
+      <c r="I1370" t="inlineStr"/>
+      <c r="J1370" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMax.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMax.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1370"/>
+  <dimension ref="A1:J1371"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44081,15 +44081,47 @@
       <c r="A1370" s="2" t="n">
         <v>44927</v>
       </c>
-      <c r="B1370" t="inlineStr"/>
-      <c r="C1370" t="inlineStr"/>
-      <c r="D1370" t="inlineStr"/>
-      <c r="E1370" t="inlineStr"/>
-      <c r="F1370" t="inlineStr"/>
-      <c r="G1370" t="inlineStr"/>
-      <c r="H1370" t="inlineStr"/>
-      <c r="I1370" t="inlineStr"/>
-      <c r="J1370" t="inlineStr"/>
+      <c r="B1370" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="C1370" t="n">
+        <v>-0.74</v>
+      </c>
+      <c r="D1370" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="E1370" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="F1370" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="G1370" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H1370" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="I1370" t="n">
+        <v>0.9602380952380939</v>
+      </c>
+      <c r="J1370" t="n">
+        <v>0.96</v>
+      </c>
+    </row>
+    <row r="1371">
+      <c r="A1371" s="2" t="n">
+        <v>44958</v>
+      </c>
+      <c r="B1371" t="inlineStr"/>
+      <c r="C1371" t="inlineStr"/>
+      <c r="D1371" t="inlineStr"/>
+      <c r="E1371" t="inlineStr"/>
+      <c r="F1371" t="inlineStr"/>
+      <c r="G1371" t="inlineStr"/>
+      <c r="H1371" t="inlineStr"/>
+      <c r="I1371" t="inlineStr"/>
+      <c r="J1371" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMax.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMax.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1371"/>
+  <dimension ref="A1:J1372"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44113,15 +44113,47 @@
       <c r="A1371" s="2" t="n">
         <v>44958</v>
       </c>
-      <c r="B1371" t="inlineStr"/>
-      <c r="C1371" t="inlineStr"/>
-      <c r="D1371" t="inlineStr"/>
-      <c r="E1371" t="inlineStr"/>
-      <c r="F1371" t="inlineStr"/>
-      <c r="G1371" t="inlineStr"/>
-      <c r="H1371" t="inlineStr"/>
-      <c r="I1371" t="inlineStr"/>
-      <c r="J1371" t="inlineStr"/>
+      <c r="B1371" t="n">
+        <v>-0.52</v>
+      </c>
+      <c r="C1371" t="n">
+        <v>-0.89</v>
+      </c>
+      <c r="D1371" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="E1371" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="F1371" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="G1371" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="H1371" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I1371" t="n">
+        <v>1.020714285714287</v>
+      </c>
+      <c r="J1371" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="1372">
+      <c r="A1372" s="2" t="n">
+        <v>44986</v>
+      </c>
+      <c r="B1372" t="inlineStr"/>
+      <c r="C1372" t="inlineStr"/>
+      <c r="D1372" t="inlineStr"/>
+      <c r="E1372" t="inlineStr"/>
+      <c r="F1372" t="inlineStr"/>
+      <c r="G1372" t="inlineStr"/>
+      <c r="H1372" t="inlineStr"/>
+      <c r="I1372" t="inlineStr"/>
+      <c r="J1372" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMax.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMax.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1372"/>
+  <dimension ref="A1:J1373"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44145,15 +44145,47 @@
       <c r="A1372" s="2" t="n">
         <v>44986</v>
       </c>
-      <c r="B1372" t="inlineStr"/>
-      <c r="C1372" t="inlineStr"/>
-      <c r="D1372" t="inlineStr"/>
-      <c r="E1372" t="inlineStr"/>
-      <c r="F1372" t="inlineStr"/>
-      <c r="G1372" t="inlineStr"/>
-      <c r="H1372" t="inlineStr"/>
-      <c r="I1372" t="inlineStr"/>
-      <c r="J1372" t="inlineStr"/>
+      <c r="B1372" t="n">
+        <v>-0.57</v>
+      </c>
+      <c r="C1372" t="n">
+        <v>-0.65</v>
+      </c>
+      <c r="D1372" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="E1372" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="F1372" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="G1372" t="n">
+        <v>-0.09</v>
+      </c>
+      <c r="H1372" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="I1372" t="n">
+        <v>0.1551428571428574</v>
+      </c>
+      <c r="J1372" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="1373">
+      <c r="A1373" s="2" t="n">
+        <v>45017</v>
+      </c>
+      <c r="B1373" t="inlineStr"/>
+      <c r="C1373" t="inlineStr"/>
+      <c r="D1373" t="inlineStr"/>
+      <c r="E1373" t="inlineStr"/>
+      <c r="F1373" t="inlineStr"/>
+      <c r="G1373" t="inlineStr"/>
+      <c r="H1373" t="inlineStr"/>
+      <c r="I1373" t="inlineStr"/>
+      <c r="J1373" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMax.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMax.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1373"/>
+  <dimension ref="A1:J1374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44177,15 +44177,47 @@
       <c r="A1373" s="2" t="n">
         <v>45017</v>
       </c>
-      <c r="B1373" t="inlineStr"/>
-      <c r="C1373" t="inlineStr"/>
-      <c r="D1373" t="inlineStr"/>
-      <c r="E1373" t="inlineStr"/>
-      <c r="F1373" t="inlineStr"/>
-      <c r="G1373" t="inlineStr"/>
-      <c r="H1373" t="inlineStr"/>
-      <c r="I1373" t="inlineStr"/>
-      <c r="J1373" t="inlineStr"/>
+      <c r="B1373" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C1373" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="D1373" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="E1373" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F1373" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G1373" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H1373" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="I1373" t="n">
+        <v>0.7451428571428548</v>
+      </c>
+      <c r="J1373" t="n">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="1374">
+      <c r="A1374" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B1374" t="inlineStr"/>
+      <c r="C1374" t="inlineStr"/>
+      <c r="D1374" t="inlineStr"/>
+      <c r="E1374" t="inlineStr"/>
+      <c r="F1374" t="inlineStr"/>
+      <c r="G1374" t="inlineStr"/>
+      <c r="H1374" t="inlineStr"/>
+      <c r="I1374" t="inlineStr"/>
+      <c r="J1374" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMax.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMax.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1374"/>
+  <dimension ref="A1:J1376"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44209,15 +44209,79 @@
       <c r="A1374" s="2" t="n">
         <v>45047</v>
       </c>
-      <c r="B1374" t="inlineStr"/>
-      <c r="C1374" t="inlineStr"/>
-      <c r="D1374" t="inlineStr"/>
-      <c r="E1374" t="inlineStr"/>
-      <c r="F1374" t="inlineStr"/>
-      <c r="G1374" t="inlineStr"/>
-      <c r="H1374" t="inlineStr"/>
-      <c r="I1374" t="inlineStr"/>
-      <c r="J1374" t="inlineStr"/>
+      <c r="B1374" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C1374" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="D1374" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="E1374" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="F1374" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="G1374" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="H1374" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="I1374" t="n">
+        <v>1.537047619047619</v>
+      </c>
+      <c r="J1374" t="n">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="1375">
+      <c r="A1375" s="2" t="n">
+        <v>45078</v>
+      </c>
+      <c r="B1375" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="C1375" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="D1375" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="E1375" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="F1375" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="G1375" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="H1375" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="I1375" t="n">
+        <v>1.397619047619048</v>
+      </c>
+      <c r="J1375" t="n">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="1376">
+      <c r="A1376" s="2" t="n">
+        <v>45108</v>
+      </c>
+      <c r="B1376" t="inlineStr"/>
+      <c r="C1376" t="inlineStr"/>
+      <c r="D1376" t="inlineStr"/>
+      <c r="E1376" t="inlineStr"/>
+      <c r="F1376" t="inlineStr"/>
+      <c r="G1376" t="inlineStr"/>
+      <c r="H1376" t="inlineStr"/>
+      <c r="I1376" t="inlineStr"/>
+      <c r="J1376" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMax.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMax.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1376"/>
+  <dimension ref="A1:J1377"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44254,7 +44254,7 @@
         <v>1.78</v>
       </c>
       <c r="F1375" t="n">
-        <v>1.97</v>
+        <v>1.87</v>
       </c>
       <c r="G1375" t="n">
         <v>0.92</v>
@@ -44263,25 +44263,57 @@
         <v>1.35</v>
       </c>
       <c r="I1375" t="n">
-        <v>1.397619047619048</v>
+        <v>1.383333333333334</v>
       </c>
       <c r="J1375" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="1376">
       <c r="A1376" s="2" t="n">
         <v>45108</v>
       </c>
-      <c r="B1376" t="inlineStr"/>
-      <c r="C1376" t="inlineStr"/>
-      <c r="D1376" t="inlineStr"/>
-      <c r="E1376" t="inlineStr"/>
-      <c r="F1376" t="inlineStr"/>
-      <c r="G1376" t="inlineStr"/>
-      <c r="H1376" t="inlineStr"/>
-      <c r="I1376" t="inlineStr"/>
-      <c r="J1376" t="inlineStr"/>
+      <c r="B1376" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="C1376" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="D1376" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1376" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="F1376" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G1376" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="H1376" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="I1376" t="n">
+        <v>1.072952380952382</v>
+      </c>
+      <c r="J1376" t="n">
+        <v>1.07</v>
+      </c>
+    </row>
+    <row r="1377">
+      <c r="A1377" s="2" t="n">
+        <v>45139</v>
+      </c>
+      <c r="B1377" t="inlineStr"/>
+      <c r="C1377" t="inlineStr"/>
+      <c r="D1377" t="inlineStr"/>
+      <c r="E1377" t="inlineStr"/>
+      <c r="F1377" t="inlineStr"/>
+      <c r="G1377" t="inlineStr"/>
+      <c r="H1377" t="inlineStr"/>
+      <c r="I1377" t="inlineStr"/>
+      <c r="J1377" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMax.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMax.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1377"/>
+  <dimension ref="A1:J1378"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44305,15 +44305,47 @@
       <c r="A1377" s="2" t="n">
         <v>45139</v>
       </c>
-      <c r="B1377" t="inlineStr"/>
-      <c r="C1377" t="inlineStr"/>
-      <c r="D1377" t="inlineStr"/>
-      <c r="E1377" t="inlineStr"/>
-      <c r="F1377" t="inlineStr"/>
-      <c r="G1377" t="inlineStr"/>
-      <c r="H1377" t="inlineStr"/>
-      <c r="I1377" t="inlineStr"/>
-      <c r="J1377" t="inlineStr"/>
+      <c r="B1377" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="C1377" t="n">
+        <v>-0.31</v>
+      </c>
+      <c r="D1377" t="n">
+        <v>-0.87</v>
+      </c>
+      <c r="E1377" t="n">
+        <v>-0.51</v>
+      </c>
+      <c r="F1377" t="n">
+        <v>-0.14</v>
+      </c>
+      <c r="G1377" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H1377" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="I1377" t="n">
+        <v>-0.1930000000000004</v>
+      </c>
+      <c r="J1377" t="n">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="1378">
+      <c r="A1378" s="2" t="n">
+        <v>45170</v>
+      </c>
+      <c r="B1378" t="inlineStr"/>
+      <c r="C1378" t="inlineStr"/>
+      <c r="D1378" t="inlineStr"/>
+      <c r="E1378" t="inlineStr"/>
+      <c r="F1378" t="inlineStr"/>
+      <c r="G1378" t="inlineStr"/>
+      <c r="H1378" t="inlineStr"/>
+      <c r="I1378" t="inlineStr"/>
+      <c r="J1378" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMax.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMax.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1378"/>
+  <dimension ref="A1:J1379"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44337,15 +44337,47 @@
       <c r="A1378" s="2" t="n">
         <v>45170</v>
       </c>
-      <c r="B1378" t="inlineStr"/>
-      <c r="C1378" t="inlineStr"/>
-      <c r="D1378" t="inlineStr"/>
-      <c r="E1378" t="inlineStr"/>
-      <c r="F1378" t="inlineStr"/>
-      <c r="G1378" t="inlineStr"/>
-      <c r="H1378" t="inlineStr"/>
-      <c r="I1378" t="inlineStr"/>
-      <c r="J1378" t="inlineStr"/>
+      <c r="B1378" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="C1378" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="D1378" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="E1378" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="F1378" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="G1378" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H1378" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="I1378" t="n">
+        <v>1.20752380952381</v>
+      </c>
+      <c r="J1378" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="1379">
+      <c r="A1379" s="2" t="n">
+        <v>45200</v>
+      </c>
+      <c r="B1379" t="inlineStr"/>
+      <c r="C1379" t="inlineStr"/>
+      <c r="D1379" t="inlineStr"/>
+      <c r="E1379" t="inlineStr"/>
+      <c r="F1379" t="inlineStr"/>
+      <c r="G1379" t="inlineStr"/>
+      <c r="H1379" t="inlineStr"/>
+      <c r="I1379" t="inlineStr"/>
+      <c r="J1379" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMax.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMax.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1379"/>
+  <dimension ref="A1:J1380"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44338,7 +44338,7 @@
         <v>45170</v>
       </c>
       <c r="B1378" t="n">
-        <v>1.16</v>
+        <v>1.06</v>
       </c>
       <c r="C1378" t="n">
         <v>1.15</v>
@@ -44359,25 +44359,57 @@
         <v>1.68</v>
       </c>
       <c r="I1378" t="n">
-        <v>1.20752380952381</v>
+        <v>1.193238095238096</v>
       </c>
       <c r="J1378" t="n">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
     </row>
     <row r="1379">
       <c r="A1379" s="2" t="n">
         <v>45200</v>
       </c>
-      <c r="B1379" t="inlineStr"/>
-      <c r="C1379" t="inlineStr"/>
-      <c r="D1379" t="inlineStr"/>
-      <c r="E1379" t="inlineStr"/>
-      <c r="F1379" t="inlineStr"/>
-      <c r="G1379" t="inlineStr"/>
-      <c r="H1379" t="inlineStr"/>
-      <c r="I1379" t="inlineStr"/>
-      <c r="J1379" t="inlineStr"/>
+      <c r="B1379" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C1379" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D1379" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="E1379" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="F1379" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G1379" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H1379" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="I1379" t="n">
+        <v>0.7713333333333333</v>
+      </c>
+      <c r="J1379" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="1380">
+      <c r="A1380" s="2" t="n">
+        <v>45231</v>
+      </c>
+      <c r="B1380" t="inlineStr"/>
+      <c r="C1380" t="inlineStr"/>
+      <c r="D1380" t="inlineStr"/>
+      <c r="E1380" t="inlineStr"/>
+      <c r="F1380" t="inlineStr"/>
+      <c r="G1380" t="inlineStr"/>
+      <c r="H1380" t="inlineStr"/>
+      <c r="I1380" t="inlineStr"/>
+      <c r="J1380" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMax.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMax.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1380"/>
+  <dimension ref="A1:J1381"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44401,15 +44401,47 @@
       <c r="A1380" s="2" t="n">
         <v>45231</v>
       </c>
-      <c r="B1380" t="inlineStr"/>
-      <c r="C1380" t="inlineStr"/>
-      <c r="D1380" t="inlineStr"/>
-      <c r="E1380" t="inlineStr"/>
-      <c r="F1380" t="inlineStr"/>
-      <c r="G1380" t="inlineStr"/>
-      <c r="H1380" t="inlineStr"/>
-      <c r="I1380" t="inlineStr"/>
-      <c r="J1380" t="inlineStr"/>
+      <c r="B1380" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="C1380" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="D1380" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="E1380" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1380" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G1380" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H1380" t="n">
+        <v>-0.39</v>
+      </c>
+      <c r="I1380" t="n">
+        <v>0.3601904761904743</v>
+      </c>
+      <c r="J1380" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="1381">
+      <c r="A1381" s="2" t="n">
+        <v>45261</v>
+      </c>
+      <c r="B1381" t="inlineStr"/>
+      <c r="C1381" t="inlineStr"/>
+      <c r="D1381" t="inlineStr"/>
+      <c r="E1381" t="inlineStr"/>
+      <c r="F1381" t="inlineStr"/>
+      <c r="G1381" t="inlineStr"/>
+      <c r="H1381" t="inlineStr"/>
+      <c r="I1381" t="inlineStr"/>
+      <c r="J1381" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMax.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMax.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1381"/>
+  <dimension ref="A1:J1382"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44433,15 +44433,47 @@
       <c r="A1381" s="2" t="n">
         <v>45261</v>
       </c>
-      <c r="B1381" t="inlineStr"/>
-      <c r="C1381" t="inlineStr"/>
-      <c r="D1381" t="inlineStr"/>
-      <c r="E1381" t="inlineStr"/>
-      <c r="F1381" t="inlineStr"/>
-      <c r="G1381" t="inlineStr"/>
-      <c r="H1381" t="inlineStr"/>
-      <c r="I1381" t="inlineStr"/>
-      <c r="J1381" t="inlineStr"/>
+      <c r="B1381" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C1381" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="D1381" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="E1381" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="F1381" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G1381" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="H1381" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="I1381" t="n">
+        <v>0.8358571428571437</v>
+      </c>
+      <c r="J1381" t="n">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="1382">
+      <c r="A1382" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="B1382" t="inlineStr"/>
+      <c r="C1382" t="inlineStr"/>
+      <c r="D1382" t="inlineStr"/>
+      <c r="E1382" t="inlineStr"/>
+      <c r="F1382" t="inlineStr"/>
+      <c r="G1382" t="inlineStr"/>
+      <c r="H1382" t="inlineStr"/>
+      <c r="I1382" t="inlineStr"/>
+      <c r="J1382" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMax.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMax.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1382"/>
+  <dimension ref="A1:J1383"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44465,15 +44465,47 @@
       <c r="A1382" s="2" t="n">
         <v>45292</v>
       </c>
-      <c r="B1382" t="inlineStr"/>
-      <c r="C1382" t="inlineStr"/>
-      <c r="D1382" t="inlineStr"/>
-      <c r="E1382" t="inlineStr"/>
-      <c r="F1382" t="inlineStr"/>
-      <c r="G1382" t="inlineStr"/>
-      <c r="H1382" t="inlineStr"/>
-      <c r="I1382" t="inlineStr"/>
-      <c r="J1382" t="inlineStr"/>
+      <c r="B1382" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="C1382" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="D1382" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="E1382" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="F1382" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G1382" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H1382" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="I1382" t="n">
+        <v>1.595142857142858</v>
+      </c>
+      <c r="J1382" t="n">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="1383">
+      <c r="A1383" s="2" t="n">
+        <v>45323</v>
+      </c>
+      <c r="B1383" t="inlineStr"/>
+      <c r="C1383" t="inlineStr"/>
+      <c r="D1383" t="inlineStr"/>
+      <c r="E1383" t="inlineStr"/>
+      <c r="F1383" t="inlineStr"/>
+      <c r="G1383" t="inlineStr"/>
+      <c r="H1383" t="inlineStr"/>
+      <c r="I1383" t="inlineStr"/>
+      <c r="J1383" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMax.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMax.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1383"/>
+  <dimension ref="A1:J1384"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44497,15 +44497,47 @@
       <c r="A1383" s="2" t="n">
         <v>45323</v>
       </c>
-      <c r="B1383" t="inlineStr"/>
-      <c r="C1383" t="inlineStr"/>
-      <c r="D1383" t="inlineStr"/>
-      <c r="E1383" t="inlineStr"/>
-      <c r="F1383" t="inlineStr"/>
-      <c r="G1383" t="inlineStr"/>
-      <c r="H1383" t="inlineStr"/>
-      <c r="I1383" t="inlineStr"/>
-      <c r="J1383" t="inlineStr"/>
+      <c r="B1383" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="C1383" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="D1383" t="n">
+        <v>-0.05</v>
+      </c>
+      <c r="E1383" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F1383" t="n">
+        <v>-0.65</v>
+      </c>
+      <c r="G1383" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H1383" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="I1383" t="n">
+        <v>0.261333333333334</v>
+      </c>
+      <c r="J1383" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="1384">
+      <c r="A1384" s="2" t="n">
+        <v>45352</v>
+      </c>
+      <c r="B1384" t="inlineStr"/>
+      <c r="C1384" t="inlineStr"/>
+      <c r="D1384" t="inlineStr"/>
+      <c r="E1384" t="inlineStr"/>
+      <c r="F1384" t="inlineStr"/>
+      <c r="G1384" t="inlineStr"/>
+      <c r="H1384" t="inlineStr"/>
+      <c r="I1384" t="inlineStr"/>
+      <c r="J1384" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMax.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMax.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1384"/>
+  <dimension ref="A1:J1385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44529,15 +44529,47 @@
       <c r="A1384" s="2" t="n">
         <v>45352</v>
       </c>
-      <c r="B1384" t="inlineStr"/>
-      <c r="C1384" t="inlineStr"/>
-      <c r="D1384" t="inlineStr"/>
-      <c r="E1384" t="inlineStr"/>
-      <c r="F1384" t="inlineStr"/>
-      <c r="G1384" t="inlineStr"/>
-      <c r="H1384" t="inlineStr"/>
-      <c r="I1384" t="inlineStr"/>
-      <c r="J1384" t="inlineStr"/>
+      <c r="B1384" t="n">
+        <v>-1.17</v>
+      </c>
+      <c r="C1384" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="D1384" t="n">
+        <v>-0.52</v>
+      </c>
+      <c r="E1384" t="n">
+        <v>-0.36</v>
+      </c>
+      <c r="F1384" t="n">
+        <v>-1.18</v>
+      </c>
+      <c r="G1384" t="n">
+        <v>-1.49</v>
+      </c>
+      <c r="H1384" t="n">
+        <v>-0.76</v>
+      </c>
+      <c r="I1384" t="n">
+        <v>-0.8162857142857136</v>
+      </c>
+      <c r="J1384" t="n">
+        <v>-0.82</v>
+      </c>
+    </row>
+    <row r="1385">
+      <c r="A1385" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B1385" t="inlineStr"/>
+      <c r="C1385" t="inlineStr"/>
+      <c r="D1385" t="inlineStr"/>
+      <c r="E1385" t="inlineStr"/>
+      <c r="F1385" t="inlineStr"/>
+      <c r="G1385" t="inlineStr"/>
+      <c r="H1385" t="inlineStr"/>
+      <c r="I1385" t="inlineStr"/>
+      <c r="J1385" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMax.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMax.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1385"/>
+  <dimension ref="A1:J1386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43349,7 +43349,7 @@
         <v>0.67</v>
       </c>
       <c r="C1347" t="n">
-        <v>1.14</v>
+        <v>1.04</v>
       </c>
       <c r="D1347" t="n">
         <v>0.05</v>
@@ -43367,10 +43367,10 @@
         <v>0.72</v>
       </c>
       <c r="I1347" t="n">
-        <v>0.3613333333333334</v>
+        <v>0.3470476190476189</v>
       </c>
       <c r="J1347" t="n">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="1348">
@@ -44187,7 +44187,7 @@
         <v>0.71</v>
       </c>
       <c r="E1373" t="n">
-        <v>0.73</v>
+        <v>0.83</v>
       </c>
       <c r="F1373" t="n">
         <v>1.29</v>
@@ -44199,10 +44199,10 @@
         <v>0.92</v>
       </c>
       <c r="I1373" t="n">
-        <v>0.7451428571428548</v>
+        <v>0.7594285714285688</v>
       </c>
       <c r="J1373" t="n">
-        <v>0.75</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="1374">
@@ -44561,15 +44561,47 @@
       <c r="A1385" s="2" t="n">
         <v>45383</v>
       </c>
-      <c r="B1385" t="inlineStr"/>
-      <c r="C1385" t="inlineStr"/>
-      <c r="D1385" t="inlineStr"/>
-      <c r="E1385" t="inlineStr"/>
-      <c r="F1385" t="inlineStr"/>
-      <c r="G1385" t="inlineStr"/>
-      <c r="H1385" t="inlineStr"/>
-      <c r="I1385" t="inlineStr"/>
-      <c r="J1385" t="inlineStr"/>
+      <c r="B1385" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="C1385" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="D1385" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="E1385" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F1385" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="G1385" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="H1385" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="I1385" t="n">
+        <v>0.5594285714285695</v>
+      </c>
+      <c r="J1385" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+    </row>
+    <row r="1386">
+      <c r="A1386" s="2" t="n">
+        <v>45413</v>
+      </c>
+      <c r="B1386" t="inlineStr"/>
+      <c r="C1386" t="inlineStr"/>
+      <c r="D1386" t="inlineStr"/>
+      <c r="E1386" t="inlineStr"/>
+      <c r="F1386" t="inlineStr"/>
+      <c r="G1386" t="inlineStr"/>
+      <c r="H1386" t="inlineStr"/>
+      <c r="I1386" t="inlineStr"/>
+      <c r="J1386" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMax.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMax.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1386"/>
+  <dimension ref="A1:J1387"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44593,15 +44593,47 @@
       <c r="A1386" s="2" t="n">
         <v>45413</v>
       </c>
-      <c r="B1386" t="inlineStr"/>
-      <c r="C1386" t="inlineStr"/>
-      <c r="D1386" t="inlineStr"/>
-      <c r="E1386" t="inlineStr"/>
-      <c r="F1386" t="inlineStr"/>
-      <c r="G1386" t="inlineStr"/>
-      <c r="H1386" t="inlineStr"/>
-      <c r="I1386" t="inlineStr"/>
-      <c r="J1386" t="inlineStr"/>
+      <c r="B1386" t="n">
+        <v>-0.63</v>
+      </c>
+      <c r="C1386" t="n">
+        <v>-0.71</v>
+      </c>
+      <c r="D1386" t="n">
+        <v>-0.92</v>
+      </c>
+      <c r="E1386" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="F1386" t="n">
+        <v>-0.49</v>
+      </c>
+      <c r="G1386" t="n">
+        <v>-1.7</v>
+      </c>
+      <c r="H1386" t="n">
+        <v>-0.89</v>
+      </c>
+      <c r="I1386" t="n">
+        <v>-0.8915238095238089</v>
+      </c>
+      <c r="J1386" t="n">
+        <v>-0.89</v>
+      </c>
+    </row>
+    <row r="1387">
+      <c r="A1387" s="2" t="n">
+        <v>45444</v>
+      </c>
+      <c r="B1387" t="inlineStr"/>
+      <c r="C1387" t="inlineStr"/>
+      <c r="D1387" t="inlineStr"/>
+      <c r="E1387" t="inlineStr"/>
+      <c r="F1387" t="inlineStr"/>
+      <c r="G1387" t="inlineStr"/>
+      <c r="H1387" t="inlineStr"/>
+      <c r="I1387" t="inlineStr"/>
+      <c r="J1387" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMax.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMax.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1387"/>
+  <dimension ref="A1:J1388"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44625,15 +44625,47 @@
       <c r="A1387" s="2" t="n">
         <v>45444</v>
       </c>
-      <c r="B1387" t="inlineStr"/>
-      <c r="C1387" t="inlineStr"/>
-      <c r="D1387" t="inlineStr"/>
-      <c r="E1387" t="inlineStr"/>
-      <c r="F1387" t="inlineStr"/>
-      <c r="G1387" t="inlineStr"/>
-      <c r="H1387" t="inlineStr"/>
-      <c r="I1387" t="inlineStr"/>
-      <c r="J1387" t="inlineStr"/>
+      <c r="B1387" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="C1387" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="D1387" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="E1387" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="F1387" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G1387" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H1387" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="I1387" t="n">
+        <v>0.9833333333333333</v>
+      </c>
+      <c r="J1387" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="1388">
+      <c r="A1388" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1388" t="inlineStr"/>
+      <c r="C1388" t="inlineStr"/>
+      <c r="D1388" t="inlineStr"/>
+      <c r="E1388" t="inlineStr"/>
+      <c r="F1388" t="inlineStr"/>
+      <c r="G1388" t="inlineStr"/>
+      <c r="H1388" t="inlineStr"/>
+      <c r="I1388" t="inlineStr"/>
+      <c r="J1388" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMax.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMax.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1388"/>
+  <dimension ref="A1:J1389"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44657,15 +44657,47 @@
       <c r="A1388" s="2" t="n">
         <v>45474</v>
       </c>
-      <c r="B1388" t="inlineStr"/>
-      <c r="C1388" t="inlineStr"/>
-      <c r="D1388" t="inlineStr"/>
-      <c r="E1388" t="inlineStr"/>
-      <c r="F1388" t="inlineStr"/>
-      <c r="G1388" t="inlineStr"/>
-      <c r="H1388" t="inlineStr"/>
-      <c r="I1388" t="inlineStr"/>
-      <c r="J1388" t="inlineStr"/>
+      <c r="B1388" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C1388" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="D1388" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="E1388" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F1388" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="G1388" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1388" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="I1388" t="n">
+        <v>0.8015238095238103</v>
+      </c>
+      <c r="J1388" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="1389">
+      <c r="A1389" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B1389" t="inlineStr"/>
+      <c r="C1389" t="inlineStr"/>
+      <c r="D1389" t="inlineStr"/>
+      <c r="E1389" t="inlineStr"/>
+      <c r="F1389" t="inlineStr"/>
+      <c r="G1389" t="inlineStr"/>
+      <c r="H1389" t="inlineStr"/>
+      <c r="I1389" t="inlineStr"/>
+      <c r="J1389" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMax.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMax.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,7 +53,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -432,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1389"/>
+  <dimension ref="A1:J1390"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44689,15 +44688,47 @@
       <c r="A1389" s="2" t="n">
         <v>45505</v>
       </c>
-      <c r="B1389" t="inlineStr"/>
-      <c r="C1389" t="inlineStr"/>
-      <c r="D1389" t="inlineStr"/>
-      <c r="E1389" t="inlineStr"/>
-      <c r="F1389" t="inlineStr"/>
-      <c r="G1389" t="inlineStr"/>
-      <c r="H1389" t="inlineStr"/>
-      <c r="I1389" t="inlineStr"/>
-      <c r="J1389" t="inlineStr"/>
+      <c r="B1389" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="C1389" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="D1389" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="E1389" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F1389" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G1389" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="H1389" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="I1389" t="n">
+        <v>1.021285714285714</v>
+      </c>
+      <c r="J1389" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="1390">
+      <c r="A1390" s="2" t="n">
+        <v>45536</v>
+      </c>
+      <c r="B1390" t="inlineStr"/>
+      <c r="C1390" t="inlineStr"/>
+      <c r="D1390" t="inlineStr"/>
+      <c r="E1390" t="inlineStr"/>
+      <c r="F1390" t="inlineStr"/>
+      <c r="G1390" t="inlineStr"/>
+      <c r="H1390" t="inlineStr"/>
+      <c r="I1390" t="inlineStr"/>
+      <c r="J1390" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMax.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMax.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1390"/>
+  <dimension ref="A1:J1391"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44720,15 +44720,47 @@
       <c r="A1390" s="2" t="n">
         <v>45536</v>
       </c>
-      <c r="B1390" t="inlineStr"/>
-      <c r="C1390" t="inlineStr"/>
-      <c r="D1390" t="inlineStr"/>
-      <c r="E1390" t="inlineStr"/>
-      <c r="F1390" t="inlineStr"/>
-      <c r="G1390" t="inlineStr"/>
-      <c r="H1390" t="inlineStr"/>
-      <c r="I1390" t="inlineStr"/>
-      <c r="J1390" t="inlineStr"/>
+      <c r="B1390" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="C1390" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="D1390" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="E1390" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="F1390" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="G1390" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="H1390" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="I1390" t="n">
+        <v>0.8503809523809538</v>
+      </c>
+      <c r="J1390" t="n">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="1391">
+      <c r="A1391" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B1391" t="inlineStr"/>
+      <c r="C1391" t="inlineStr"/>
+      <c r="D1391" t="inlineStr"/>
+      <c r="E1391" t="inlineStr"/>
+      <c r="F1391" t="inlineStr"/>
+      <c r="G1391" t="inlineStr"/>
+      <c r="H1391" t="inlineStr"/>
+      <c r="I1391" t="inlineStr"/>
+      <c r="J1391" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMax.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMax.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1391"/>
+  <dimension ref="A1:J1392"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44752,15 +44752,47 @@
       <c r="A1391" s="2" t="n">
         <v>45566</v>
       </c>
-      <c r="B1391" t="inlineStr"/>
-      <c r="C1391" t="inlineStr"/>
-      <c r="D1391" t="inlineStr"/>
-      <c r="E1391" t="inlineStr"/>
-      <c r="F1391" t="inlineStr"/>
-      <c r="G1391" t="inlineStr"/>
-      <c r="H1391" t="inlineStr"/>
-      <c r="I1391" t="inlineStr"/>
-      <c r="J1391" t="inlineStr"/>
+      <c r="B1391" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="C1391" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="D1391" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="E1391" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="F1391" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="G1391" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H1391" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="I1391" t="n">
+        <v>0.714190476190476</v>
+      </c>
+      <c r="J1391" t="n">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="1392">
+      <c r="A1392" s="2" t="n">
+        <v>45597</v>
+      </c>
+      <c r="B1392" t="inlineStr"/>
+      <c r="C1392" t="inlineStr"/>
+      <c r="D1392" t="inlineStr"/>
+      <c r="E1392" t="inlineStr"/>
+      <c r="F1392" t="inlineStr"/>
+      <c r="G1392" t="inlineStr"/>
+      <c r="H1392" t="inlineStr"/>
+      <c r="I1392" t="inlineStr"/>
+      <c r="J1392" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/seven_station_series_output/data/Station-Anomalies_TMax.xlsx
+++ b/seven_station_series_output/data/Station-Anomalies_TMax.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1393"/>
+  <dimension ref="A1:J1395"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44784,29 +44784,107 @@
       <c r="A1392" s="2" t="n">
         <v>45597</v>
       </c>
-      <c r="B1392" t="inlineStr"/>
-      <c r="C1392" t="inlineStr"/>
-      <c r="D1392" t="inlineStr"/>
-      <c r="E1392" t="inlineStr"/>
-      <c r="F1392" t="inlineStr"/>
-      <c r="G1392" t="inlineStr"/>
-      <c r="H1392" t="inlineStr"/>
-      <c r="I1392" t="inlineStr"/>
-      <c r="J1392" t="inlineStr"/>
+      <c r="B1392" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="C1392" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="D1392" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="E1392" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F1392" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G1392" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="H1392" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I1392" t="n">
+        <v>0.745904761904762</v>
+      </c>
+      <c r="J1392" t="n">
+        <v>0.75</v>
+      </c>
     </row>
     <row r="1393">
       <c r="A1393" s="2" t="n">
         <v>45627</v>
       </c>
-      <c r="B1393" t="inlineStr"/>
-      <c r="C1393" t="inlineStr"/>
-      <c r="D1393" t="inlineStr"/>
-      <c r="E1393" t="inlineStr"/>
+      <c r="B1393" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="C1393" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="D1393" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="E1393" t="n">
+        <v>2.1</v>
+      </c>
       <c r="F1393" t="inlineStr"/>
-      <c r="G1393" t="inlineStr"/>
-      <c r="H1393" t="inlineStr"/>
-      <c r="I1393" t="inlineStr"/>
-      <c r="J1393" t="inlineStr"/>
+      <c r="G1393" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="H1393" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="I1393" t="n">
+        <v>1.492388888888889</v>
+      </c>
+      <c r="J1393" t="n">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="1394">
+      <c r="A1394" s="2" t="n">
+        <v>45658</v>
+      </c>
+      <c r="B1394" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="C1394" t="n">
+        <v>-2.64</v>
+      </c>
+      <c r="D1394" t="n">
+        <v>-1.26</v>
+      </c>
+      <c r="E1394" t="n">
+        <v>-1.52</v>
+      </c>
+      <c r="F1394" t="inlineStr"/>
+      <c r="G1394" t="n">
+        <v>-2.75</v>
+      </c>
+      <c r="H1394" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="I1394" t="n">
+        <v>-1.572333333333335</v>
+      </c>
+      <c r="J1394" t="n">
+        <v>-1.57</v>
+      </c>
+    </row>
+    <row r="1395">
+      <c r="A1395" s="2" t="n">
+        <v>45689</v>
+      </c>
+      <c r="B1395" t="inlineStr"/>
+      <c r="C1395" t="inlineStr"/>
+      <c r="D1395" t="inlineStr"/>
+      <c r="E1395" t="inlineStr"/>
+      <c r="F1395" t="inlineStr"/>
+      <c r="G1395" t="inlineStr"/>
+      <c r="H1395" t="inlineStr"/>
+      <c r="I1395" t="inlineStr"/>
+      <c r="J1395" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
